--- a/parser/table.xlsx
+++ b/parser/table.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Textbausteine befundeingabestru" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="181">
   <si>
     <t xml:space="preserve">Typ</t>
   </si>
@@ -28,6 +28,12 @@
     <t xml:space="preserve">Gliederung</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baustein ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baustein Befund</t>
   </si>
   <si>
@@ -61,10 +67,7 @@
     <t xml:space="preserve">Aufzählungstexte</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dann</t>
+    <t xml:space="preserve">Text Beurteilung</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt I</t>
@@ -208,6 +211,9 @@
     <t xml:space="preserve">I6</t>
   </si>
   <si>
+    <t xml:space="preserve">1 / 2 / 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1 / 2 / 3] konnektierte Sondenkabel</t>
   </si>
   <si>
@@ -256,7 +262,7 @@
     <t xml:space="preserve">Beidseits Zwerchfelle orthotop, glatt begrenzt, Randwinkel entfaltet. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Alternativtext</t>
+    <t xml:space="preserve">Z-EK</t>
   </si>
   <si>
     <t xml:space="preserve">Erguss klein</t>
@@ -286,6 +292,9 @@
     <t xml:space="preserve">Keine pleurale Dehiszenz. </t>
   </si>
   <si>
+    <t xml:space="preserve">P-D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dehiszenz</t>
   </si>
   <si>
@@ -328,6 +337,12 @@
     <t xml:space="preserve">\n\nMediastinum: \n</t>
   </si>
   <si>
+    <t xml:space="preserve">Z-EK, P-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text-Neu-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mediastinum </t>
   </si>
   <si>
@@ -529,7 +544,7 @@
     <t xml:space="preserve">Lage im …</t>
   </si>
   <si>
-    <t xml:space="preserve">Tumorverdächtige Raumforderung mit folgenden Charakteristika: [Lage im %L1%, ][Ausdehnung über %L2% cm, ][Form %L3%, ][Begrenzung %L4%.] </t>
+    <t xml:space="preserve">Tumorverdächtige Raumforderung mit folgenden Charakteristika: Lage im %L1%, Ausdehnung über %L2% cm, Form %L3%,  Begrenzung %L4%.</t>
   </si>
   <si>
     <t xml:space="preserve">L2</t>
@@ -554,9 +569,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -624,12 +640,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,30 +670,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="61:61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="44.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="37.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -719,765 +741,775 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>24</v>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>24</v>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>28</v>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>24</v>
+      <c r="M9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="s">
         <v>52</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>48</v>
+      <c r="J14" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="0" t="s">
+      <c r="M14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>52</v>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="M15" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>48</v>
+      <c r="J16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="s">
+      <c r="M16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>37653</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="0" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="K18" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>48</v>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="K20" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="0" t="s">
+      <c r="N31" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="0" t="s">
+      <c r="F33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>99</v>
+      <c r="M59" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>102</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
